--- a/research_compilation.xlsx
+++ b/research_compilation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>PAPER ANALYSIS</t>
   </si>
@@ -525,6 +525,1388 @@
         <rFont val="Cambria"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">Edge-Based Hybrid System Implementation for Long-Range Safety and Healthcare IoT Applications 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"IEEE INTERNET OF THINGS JOURNAL, VOL. 8, NO. 12, JUNE 15, 2021"</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloud-based IoT causes latency (unsuitable for real-time apps)
+Short-range protocols (e.g., BLE) require multiple gateways for wide coverage.
+High deployment cost and complexity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gateway: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Raspberry Pi 3B+ with LoRa (RFM95 ×2), XBee-PRO 900HP, ZigBee, BLE (nRF52840 dongle), power management (5V/2.5A). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Router: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nRF52840 MCU with BLE 5/LoRa (RFM95), environmental sensor (BME280), solar harvester (ADP5090 + 2600mAh battery).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Sensors: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Wearable nodes (nRF52840 + LoRa + solar), ECG/health sensors (AD8232), BLE ID tags.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3-Tier Layered
+IoT Layer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Sensors (BLE).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Edge Layer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hybrid router (BLE-to-LoRa bridging + basic edge tasks) + Gateway (multi-protocol support, data processing, cloud connectivity).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Cloud Layer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data storage/analysis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Device Management:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Registers sensors via MAC addresses then end nodes read health vital and environment data and send it via BLE. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BLE-LoRa Bridging:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Routes BLE sensor data to gateway via LoRa.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Lora Gateway: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>It send data to cloud for  for visualization and save locally in MongoDB (NoSQL) for raw (Level 1) and processed (Level 2) data 
+Wearable sensors (nRF52840 + LoRa) → Router/Gateway → Cloud.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Latency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 11.5 ms (BLE-to-router), 316 ms (LoRa SF9).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Coverage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BLE extended to 2.4 km via LoRa routers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DER(Data Extraction Rate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: &gt;99% (10 routers, SF9).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Routers operate 9 days indoors and gateway 8h on power bank.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Emergency response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: &lt;2s for cardiac alerts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Integrate more protocols: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">SigFox, NB-IoT, ZigBee, NFC.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Enhance security:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Authentication beyond AES-128 and post quantum algorithms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LoRaWAN Underground to Aboveground Data Transmission Performances for Different Soil Compositions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE TRANSACTIONS ON INSTRUMENTATION AND MEASUREMENT, VOL. 70, 2021"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Evaluate LoRaWAN feasibility for underground-to-aboveground (UG2AG) data transmission.
+Analyze signal performance across different pure soil types (gravel, sand, clay).
+Address challenges in wireless underground sensor networks (WUSNs) due to soil attenuation for smart agriculture and environmental monitoring.</t>
+  </si>
+  <si>
+    <r>
+      <t>Transmitter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: B-L072Z-LRWAN1 Discovery Kit (STM32L072CZ MCU + Semtech SX1276 LoRa transceiver), λ/8 whip antenna (2 dBi), power bank, enclosed in IP56 box.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Receiver (Gateway):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Dragino LG308 with SX1257 and SX1301 LoRa modem, λ/8 whip antenna, 125 kHz bandwidth.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Frequency:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 863–870 MHz (8 channels).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Transmission power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 14 dBm; CR: 4/5.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Placement:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Transmitter buried at 10, 20, 30, 40, 50 cm depths; gateway at 15 m on the ground.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Start Topology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+LoRaWAN-based Internet of Underground Things system - Underground node periodically sends packets using LoRaWAN.
+Aboveground gateway forwards packets via MQTT to a Node-RED server.
+Data stored in a MySQL database for analysis of RSSI, SNR, and packet loss (PL).
+Uses frequency diversity across 6 channels to enhance reliability.</t>
+    </r>
+  </si>
+  <si>
+    <t>Soil samples (gravel, sand, clay) analyzed for grain size, VWC, and bulk density.
+Transmitter buried at 5 depths (10–50 cm) in each soil type.
+LoRaWAN transmissions at SF 7–12 with 300 packets per SF and depth.
+Collected RSSI, SNR, PL for each configuration.
+Validated soil compaction impact via a 20-day test showing negligible RSSI change.
+Applied path loss models using MBSDM and ITU methods for comparison with experimental results.</t>
+  </si>
+  <si>
+    <t>Successful UG2AG data transmission up to 50 cm for all soil types with PL &lt; 2% (except clay at SF=12 for 40/50 cm). 
+Sandy soil provided best RSSI/SNR; gravel worst (difference ~10 dBm).
+LoRaWAN’s high receiver sensitivity (up to -137 dBm) enables reliable underground data collection.</t>
+  </si>
+  <si>
+    <t>Extend tests to deeper burial depths (&gt;50 cm, e.g., 1 m).
+Analyze impact of soil chemical composition (salinity, metallic content) on UG2AG transmissions.
+Test other frequency bands (433 MHz, 915 MHz) for UG2AG links.
+Study impact of larger gateway distances (30, 50, 100 m) on link budget.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LTrack: A LoRa-Based Indoor Tracking System for Mobile Robots 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE TRANSACTIONS ON VEHICULAR TECHNOLOGY, VOL. 71, NO. 4, APRIL 2022"</t>
+    </r>
+  </si>
+  <si>
+    <t>Existing indoor tracking for robots often uses vision-based methods, causing privacy issues and limited coverage.
+RF-based systems need infrastructure, have limited range, or are costly (e.g., SDR/USRP-based AoA estimation).
+Need a low-cost, infrastructure-free, accurate indoor tracking system for mobile robots using LoRa while overcoming its lack of AoA capability.</t>
+  </si>
+  <si>
+    <r>
+      <t>Anchor (gateway):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+LoRa SX1280 chip, circular antenna array (two 0.2 m separated omnidirectional antennas), HMC241 RF switch, rotary DC motor with encoder, PID control, installed on mobile robot.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tag (end device):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+SX1280 LoRa chip + STM32L476 microcontroller, 4 cm x 10 cm, low-power design.
+LoRa configuration: 2.4 GHz band, 1625 kHz bandwidth, SF5, 12.5 dBm transmit power.</t>
+    </r>
+  </si>
+  <si>
+    <t>Anchor mounted on the robot:
+Sends/receives ranging packets from tag.
+Uses optimized ToF and TDoF measurements with antenna switching.
+Rotates antenna array to create a virtual circular array for AoA estimation while eliminating blind spots.
+Uses Doppler shift analysis for movement estimation.
+Firmware on the robot:
+Receives AoA, ToF, and velocity data from the anchor.
+Calculates target location and navigates robot toward the target in real-time.</t>
+  </si>
+  <si>
+    <t>Enable AoA on LoRa using lightweight hardware modification (antenna array + RF switch).
+Optimize LoRa’s default ranging workflow to reduce ranging time from 160 ms to 2.88 ms, improving TDoF accuracy.
+Use circular antenna array rotation to emulate a virtual array, eliminating blind spots.
+Employ stochastic gradient descent (SGD) for real-time AoA estimation during tracking.
+Doppler shift-based velocity estimation to account for target movement in real-time.
+Integrated tracking algorithm on the robot for continuous path planning and movement toward the target.</t>
+  </si>
+  <si>
+    <t>TDoF(Time Difference of Flight) accuracy improved by 3x over standard 
+LoRa AoA(Angle of Arrival) error:
+2.4° at 40 m, 4.5° at 50 m, 5.2° at 60 m (LOS).
+5.7–8.5° (NLOS with obstacles). 
+Tracking error:
+0.12 m median in lab (137 m²).
+0.24–0.45 m in a 600 m² corridor at 0.3–0.5 m/s speeds. 
+Supports multi-target tracking with &lt;1 m error up to 8 targets in 50 x 50 m².
+Works up to 200 m with &lt;10° AoA error.</t>
+  </si>
+  <si>
+    <t>Extend to 3D tracking and outdoor environments.
+Integration with multi-robot collaboration for large-scale warehouse/industrial applications.
+Improve tracking under fast target movement (&gt;0.5 m/s).
+Combine with sensor fusion (LiDAR, IMU) for enhanced accuracy in challenging indoor environments.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LoRa-Based Smart Sensor for Partial Discharges PD Detection in Underground Electrical Substations 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE TRANSACTIONS ON INSTRUMENTATION AND MEASUREMENT, VOL. 71, 2022"</t>
+    </r>
+  </si>
+  <si>
+    <t>Underground substations need continuous PD (Partial Discharge or electrical spark) monitoring for predictive maintenance.
+Difficult wireless transmission from underground (reinforced concrete, EMI).
+Need for:
+Low-cost, low-power, reliable PD detection.
+Wireless connectivity with robust transmission in underground conditions.
+Local auto-calibration to environmental noise.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ultrasonic sensor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: MURATA MA40S4R, 40 kHz, high sensitivity for acoustic PD detection.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FPAA (Anadigm QuadApex):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Programmable analog filter (40 kHz center, 1.5 kHz BW) and amplifier.
+Allows on-site gain adjustment for noise adaptation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Microcontroller:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> STM32F446RE (Cortex-M4, 180 MHz) for acquisition and processing.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LoRa Transceiver:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> SX1272 (via I-NUCLEO-SX1272D board).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analog Section: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>To detect ultrasonic signals generated by PD then filter and amplify these signals for reliable processing by using ultrasonic sensor and programmable conditioning circuit using FPAA (Field Programmable Analog Array)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Digital Section with LoRa Transmission: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>To acquire, process, and analyze the analog signal. 
+To detect PD events based on thresholds.
+To transmit alert messages using LoRa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sensor Node Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Developed a low-cost smart sensor node for detecting Partial Discharges (PD) using ultrasonic acoustic sensing. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Signal Conditioning using FPAA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: FPAA used  for: Bandpass filtering centered at 40 kHz (1.5 kHz BW) + Amplification with programmable gain + Allowed on-site automatic gain adjustment based on environmental noise. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Wireless Communication Testing using LoRa: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Integrated SX1272 LoRa transceiver for wireless data transmission. Configured as SF =  8.
+BW = 125 kHz. then transmitted PD alert messages (“Green”, “Yellow”, “Red”) to an external gateway for monitoring.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alerts: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Yellow alert at 300 mV (~6 dB SNR). Red alert at 1.5 V (~20 dB SNR).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Packet Loss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 0% packet loss across 1000 packets in all LoRa test scenarios.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+LoRa transmission: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>It was reliable even with - Reinforced concrete obstacles. Substation depth of 4 m.
+Distances up to 110 m with buildings in the line of sight.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design custom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PCB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">robust casing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">for EMI protection. 
+Extend detection capability to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>other discharge types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and materials (oil, rubber).
+Investigate lightweight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encryption</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for secure LoRa transmission.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Efficient Energy Mechanism in Heterogeneous WSNs for Underground Mining Monitoring Applications 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE 10.1109/ACCESS.2022.3188654 15 JULY 2022"</t>
+    </r>
+  </si>
+  <si>
+    <t>High energy consumption in heterogeneous WSNs for underground mining due to:
+DEECP protocol ignoring node distance to BS during CH selection
+Failure to account for multi-level energy heterogeneity (low/high/super) in sensors
+Premature node death reducing network stability and lifetime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Simulation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MATLAB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Network Size: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">200m × 200m area, 7m depth
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Nodes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">50-200 heterogeneous sensors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Communication: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ZigBee/802.15.4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Traffic: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">200–1000 packets, 200–600 messages
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+BS Position: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Centralized</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Topology: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Cluster-based
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Energy Model: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Three-level heterogeneous (low/high/super energy nodes)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Communication: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Multi-hop inter-cluster routing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Mine Structure: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Room-and-pillar deployment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">The proposed mechanism improves the Distributed Energy-Efficient Clustering Protocol (DEECP) by addressing two critical limitations:
+Ignoring energy heterogeneity (DEECP assumes only two energy levels).
+Overlooking distance to BS during CH selection.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Enhanced DEECP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DEECP with distance-aware CH selection and three energy levels</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+CH(Cluster Head) election : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Probability based threshold for CH election and distance-integrated threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Key Improvements:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CHs selected based on proximity to BS + residual energy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Energy-balanced clustering to prevent overload on distant nodes</t>
+    </r>
+  </si>
+  <si>
+    <t>24% longer network lifetime vs. DEECP 
+Later first node death: 436 rounds (proposed) vs. 885 rounds (DEECP)
+Higher throughput: 150 kbps (proposed) vs. 75 kbps (DEECP) 
+Stability period: 436 rounds (proposed) vs. 885 rounds (DEECP)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Integrate AI techniques (Q-learning, swarm intelligence) for CH optimization
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Optimize data flow volume based on sensor types
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Extend to larger-scale deployments with real-world testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A Hand Hygiene Tracking System With LoRaWAN Network for the Abolition of Hospital-Acquired Infections
 </t>
     </r>
@@ -1767,6 +3149,572 @@
         <rFont val="Cambria"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">RTEPMS: Real-Time Environmental Parameters Monitoring System Using IoT-Based LoRa 868-MHz Wireless Communication Technology in Underground Mines 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE 10.1109/ACCESS.2024.3350429 18 JAN 2024"</t>
+    </r>
+  </si>
+  <si>
+    <t>Manual monitoring of environmental parameters (gases, temperature, humidity) in underground mines using portable multi-gas detectors is infrequent, lacks real-time alerts, and is costly. Existing systems suffer from poor wireless signal propagation in curved tunnels, data packet loss, and limited scalability.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Sensors: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MQ-4 (CH₄), MQ-7 (CO), MQ-8 (H₂), MQ-136 (H₂S), MH-Z19C (CO₂), DHT11/22 (temp/humidity).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Microcontroller: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ESP32 with Wi-Fi/Bluetooth.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Communication:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> HPD13A-SX1276 LoRa 868 MHz transceivers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Storage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Micro SD cards.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Peripherals: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RTC (DS1307), LCD, buzzer, 6/7 dBi antenna.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Start Topology 
+Transmitter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Sensors → ESP32 → LoRa module (868 MHz) → SD card (local storage)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+Receiver: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">LoRa module → ESP32 → SD card/ThingSpeak cloud (via Wi-Fi) → LCD/alerts.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Power: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12V battery → LM2596 (5V) → AMS1117 (3.3V) for low-power components.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sensors calibrated using datasheets and multi-gas detector references.
+Data collected every minute; stored in CSV on SD card during specific intervals (00–02, 20–22, 40–42 min).
+LoRa transmits data; receiver sends acknowledgments.
+Threshold-based buzzer alerts for parameter violations.
+Testing in open space (300 m LOS) and underground mine (straight: 180–200 m; curved: 125–130 m).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Achieved 300 m (surface), 180–200 m (straight tunnels), 125–130 m (curved tunnels).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Gas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Correlation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 69.47% for CO₂, 72.38% for CO vs. multi-gas detectors; CH₄/H₂S</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Adopt LoRaWAN gateways for extended coverage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Integrate real-time dashboards in control rooms.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Apply ML for hazard prediction and proactive safety.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Enhance durability for harsh environments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LoRaAid: Underground Joint Communication and Localization System Based on LoRa Technology 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE TRANSACTIONS ON WIRELESS COMMUNICATIONS, VOL. 23, NO. 5, MAY 2024"</t>
+    </r>
+  </si>
+  <si>
+    <t>Underground wireless applications (e.g., mine rescue, earthquake rescue) require communication and precise localization simultaneously under:
+Severe underground signal attenuation,
+Limited hardware resources,
+Restricted communication opportunities.
+Existing systems typically handle communication and localization separately, leading to inefficiency in emergencies.
+Need for a lightweight, low-power system enabling simultaneous underground communication and decimeter-level localization using one signal.</t>
+  </si>
+  <si>
+    <r>
+      <t>Wearable LoRa device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> carried by individuals in underground environments.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Multiple buried LoRa nodes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(anchors) connected to a gateway/data center.
+Devices used: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>USRP 2954R SDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">s with VERT 900 antennas.
+Operate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>at 900 MHz,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with Spreading Factors SF7–SF12, BW = 125 kHz, CR = 4/5.</t>
+    </r>
+  </si>
+  <si>
+    <t>LoRaAid system with:
+A wearable LoRa transmitter (target) sending signals during emergencies.
+Multiple buried receivers(LoRa Transceiver) capturing the signal and sending it to the data center.
+Data center: Combines signals from multiple nodes for diversity reception.
+Uses noise-reduced RSSI-based trilateration for localization.
+Uses Maximal Ratio Combining (MRC) with coherent demodulation and Equal Gain Combining (EGC) with non-coherent demodulation for flexible deployment based on precision and hardware constraints.</t>
+  </si>
+  <si>
+    <r>
+      <t>Transmit Signal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  LoRa chirp send signals from the wearable device then signal propagation modeling in underground environments 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Underground channel uses underground channel path loss and Rayleigh fading.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RSSI-to-Distance Conversion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Establishes a relation between RSSI and distance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spatial Diversity Reception:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Signals from multiple nodes combined to enhance SNR even under ultra-low SNR conditions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Localization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Noise-reduced RSSI extracted using FFT-based dechirping then apply Taylor series-based iterative trilateration using distances from atleast 3 anchor nodes for 2D localization.</t>
+    </r>
+  </si>
+  <si>
+    <t>Achieved reliable underground communication up to 7 m with decimeter-level positioning accuracy. 
+Noise-reduction algorithm improved localization accuracy by 8–18% depending on soil moisture.
+Demonstrated that higher soil moisture reduces communication range and localization accuracy.</t>
+  </si>
+  <si>
+    <t>Extend LoRaAid to 3D localization in varying depth environments.
+Optimize anchor placement algorithms for rapid deployment during emergencies.
+Integrate adaptive SF/BW selection to balance energy, range, and data rate dynamically. 
+Test in real mine rescue and earthquake simulation environments for further validation.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Design and Study of LoRa-Based IIoT Network for Underground Coal Mine Environment 
 </t>
     </r>
@@ -1850,6 +3798,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mesh Multi-Hop System</t>
     </r>
     <r>
@@ -1906,6 +3862,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Mesh Topolog: </t>
     </r>
     <r>
@@ -1962,6 +3926,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Coverage Achieved:</t>
     </r>
     <r>
@@ -2018,6 +3990,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Integration with Rescue Systems:</t>
     </r>
     <r>
@@ -2095,6 +4075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Design of a Wireless Cyber–Physical System for Gas Leak Detection with LoRa 
 </t>
     </r>
@@ -2115,6 +4101,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">LoRa-enabled sensor nodes: </t>
     </r>
     <r>
@@ -2170,6 +4164,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Star Topology 
 LoRa Sensor Nodes (End Devices): </t>
     </r>
@@ -2226,6 +4228,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Data Acquisition:</t>
     </r>
     <r>
@@ -2303,6 +4313,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Transmission Range &amp; Reliability:</t>
     </r>
     <r>
@@ -2380,6 +4398,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>AI/ML Integration:</t>
     </r>
     <r>
@@ -2433,6 +4459,128 @@
       </rPr>
       <t xml:space="preserve"> Implement dynamic adjustment of LoRa parameters (SF, BW, CR) to balance latency, range, and power consumption.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Parameter Configuration Scheme for Optimal Energy Efficiency in LoRa-Based Wireless Underground Sensor Networks 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE TRANSACTIONS ON VEHICULAR TECHNOLOGY, VOL. 74, NO. 6, JUNE 2025"</t>
+    </r>
+  </si>
+  <si>
+    <t>Energy inefficiency in LoRa-based WUSNs due to high signal attenuation in soil, requiring higher transmit power.
+Battery replacement difficulty for buried nodes.
+Collision-induced packet loss in densely deployed nodes.
+Existing solutions (Adaptive Data Rate, Adaptive Selection of Transmission Configuration for LoRa-Based WUSNs) either sacrifice Energy Efficiency for reliability, lack adaptability, or ignore collisions.</t>
+  </si>
+  <si>
+    <t>Buried LoRa sensor nodes with soil moisture sensors Aboveground gateway receiving Underground-to-AboveGround transmissions
+Operating parameters: Central frequency = 915 Mhz
+Soil properties: Sand fraction S = 51%, Clay fraction = 9%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EnergySaver framework:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Nodes measure soil moisture (VWC) and send data to gateway.
+Gateway uses underground channel model to estimate SNR based on VWC, transmit power, and node location.
+Calculates Packet Delivery Ratio(PDR) and Energy Efficiency(EE) for all parameter combinations (SF, TP, BW, CR) using closed-form EE expression then selects configuration maximizing EE with PDR &gt;90%.
+Sends optimal parameters back to nodes.
+For collisions: Uses unaligned-window decoding to resolve concurrent transmissions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Goal: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dynamically select LoRa parameters to maximize EE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+EE= DR×PDR/TP 
+DR (Data Rate) depends on SF, BW, CR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Evaluate EE for every possible (SF, TP, BW, CR) combination
+Choose configuration with maximum EE and PDR &gt;90% 
+If packets collide but start at slightly different times time offset, their chirps align differently in time.
+By slicing the received signal smartly and analyzing using FFT, we can separate the collided packets.</t>
+    </r>
+  </si>
+  <si>
+    <t>20× higher EE vs. ADR/ND-ADR and 2× higher vs. ALPPS 
+Maintains PDR &gt;90% while optimizing EE 
+Collision decoding reduces SER to 37% (vs. 90% in standard LoRa) with 10 concurrent nodes 
+Low complexity: Decoding overhead O(QNlogN) at gateway, no node modifications. 
+Scalable for dense deployments (e.g. greenhouses)</t>
+  </si>
+  <si>
+    <t>Field validation in real-world environments (e.g., farms).
+Integration with energy harvesting (solar/soil).
+Multi-gateway coordination for large-scale deployments.
+Machine learning for faster parameter adaptation.
+Extension to mobile underground nodes (e.g., robotic sensors).</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +4774,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2642,6 +4790,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,7 +4992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2985,6 +5139,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -3018,6 +5183,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -3029,11 +5209,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3213,7 +5397,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3225,119 +5409,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3347,6 +5531,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3356,16 +5546,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3392,7 +5582,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3404,21 +5594,57 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -3440,18 +5666,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -3461,16 +5729,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4006,12 +6274,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4021,392 +6289,573 @@
     <col min="3" max="3" width="38.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="58.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="45.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="47.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="45.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="35.7142857142857" customWidth="1"/>
     <col min="8" max="8" width="37.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" ht="28.5" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="254" customHeight="1" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="169" customHeight="1" spans="1:8">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="234" customHeight="1" spans="1:8">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+    <row r="5" customFormat="1" ht="234" customHeight="1" spans="1:8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" ht="292" customHeight="1" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
+    <row r="6" customFormat="1" ht="248" customHeight="1" spans="1:8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="31" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="326" customHeight="1" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" customFormat="1" ht="297" customHeight="1" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="264" customHeight="1" spans="1:8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" customFormat="1" ht="239" customHeight="1" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="294" customHeight="1" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+    <row r="9" s="3" customFormat="1" ht="312" customHeight="1" spans="1:8">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="27">
-        <v>7</v>
-      </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="40"/>
+    <row r="10" ht="234" customHeight="1" spans="1:8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="27">
-        <v>8</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="40"/>
+    <row r="11" ht="292" customHeight="1" spans="1:8">
+      <c r="A11" s="41"/>
+      <c r="B11" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="27">
-        <v>9</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="40"/>
+    <row r="12" ht="326" customHeight="1" spans="1:8">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="27">
-        <v>10</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="40"/>
+    <row r="13" customFormat="1" ht="326" customHeight="1" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="27">
-        <v>11</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="40"/>
+    <row r="14" s="4" customFormat="1" ht="291" customHeight="1" spans="1:8">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="27">
-        <v>12</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="40"/>
+    <row r="15" s="1" customFormat="1" ht="264" customHeight="1" spans="1:8">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="27">
-        <v>13</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="40"/>
+    <row r="16" ht="294" customHeight="1" spans="1:8">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="27">
-        <v>14</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="40"/>
+    <row r="17" ht="270" customHeight="1" spans="1:8">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="27">
-        <v>15</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="40"/>
+      <c r="A18" s="41">
+        <v>8</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="27">
-        <v>16</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="40"/>
+      <c r="A19" s="41">
+        <v>9</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="27">
-        <v>17</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="40"/>
+      <c r="A20" s="41">
+        <v>10</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="27">
-        <v>18</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="40"/>
+      <c r="A21" s="41">
+        <v>11</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="68"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="27">
+      <c r="A22" s="41">
+        <v>12</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="41">
+        <v>13</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="41">
+        <v>14</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="41">
+        <v>15</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="68"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="41">
+        <v>16</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="41">
+        <v>17</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="41">
+        <v>18</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="68"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="41">
         <v>19</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="40"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="68"/>
     </row>
-    <row r="23" ht="15.75" spans="1:8">
-      <c r="A23" s="41">
+    <row r="30" ht="15.75" spans="1:8">
+      <c r="A30" s="69">
         <v>20</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/research_compilation.xlsx
+++ b/research_compilation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>PAPER ANALYSIS</t>
   </si>
@@ -891,6 +891,75 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Real-Time Human Activity Recognition (HAR) System Based on Capsule and LoRa 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE SENSORS JOURNAL, VOL. 21, NO. 1, JANUARY 1, 2021"</t>
+    </r>
+  </si>
+  <si>
+    <t>Existing HAR systems using CNN/RNN fail to capture spatial relationships among features, leading to incorrect recognition.
+Wireless transmission modes like Bluetooth/4G either lack long-range support or are power-hungry, making real-time HAR impractical in large-range, low-power scenarios.</t>
+  </si>
+  <si>
+    <t>Wristband with:
+MPU-6050 (3-axis gyroscope + 3-axis accelerometer) for data collection.
+STM32 microcontroller for control.
+LoRa module (SX1278) for long-range, low-power wireless transmission.
+Tested transmission: 200 m range, 4.8 kbps rate, 3.7V Li-ion battery.</t>
+  </si>
+  <si>
+    <t>Four layers:
+Perception layer: Data collection via wearable sensors.
+Access layer: LoRa for data transmission.
+Platform layer: Preprocessing + Capsule network-based activity recognition.
+Application layer: User feedback and stability adjustments.
+LoRa enables low-power, long-distance transmission, making smart prison or large-area HAR feasible.</t>
+  </si>
+  <si>
+    <t>Collect activity data via wristband and transmit via LoRa then handle data uncertainty (missing/inconsistent data) using deletion, prediction, and Dempster-Shafer theory. 
+Segment time-series data using a sliding window (length=90, 50% overlap).
+Build capsule network: Converts scalar inputs to vectors, capturing spatial relationships. Utilizes dynamic routing between capsule layers. Employs squash functions for non-linear vector processing. 
+Train on WISDM dataset (36 individuals, 6 activities, 20Hz).
+Optimize parameters: route iterations (best=5), learning rate (0.006), capsule kernels (34), capsule groups (11).
+Use Softmax classifier for final activity prediction.
+Incorporate user feedback for system parameter tuning.</t>
+  </si>
+  <si>
+    <t>Accuracy:
+Capsule framework: 95.2% testing accuracy.
+Outperforms CNN by 4.5% and LSTM by 2.9% on WISDM.
+Training accuracy reaches 99.9% after 30 epochs.
+Performs well in recognizing walking (99%), jogging (97.5%), standing (96.2%), but struggles with distinguishing upstairs vs downstairs due to similarity.
+LoRa successfully achieves long-range, low-power transmission suitable for real-time HAR.</t>
+  </si>
+  <si>
+    <t>Explore capsule + LSTM hybrid frameworks to further improve recognition.
+Investigate alternative weighting mechanisms for capsules.
+Address limitations in distinguishing similar activities (e.g., stairs movement)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">LoRaWAN Underground to Aboveground Data Transmission Performances for Different Soil Compositions
 </t>
     </r>
@@ -922,6 +991,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Transmitter</t>
     </r>
     <r>
@@ -1020,6 +1097,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Start Topology</t>
     </r>
     <r>
@@ -1057,6 +1142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">LTrack: A LoRa-Based Indoor Tracking System for Mobile Robots 
 </t>
     </r>
@@ -1078,6 +1169,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Anchor (gateway):</t>
     </r>
     <r>
@@ -1151,6 +1250,98 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Energy Consumption Improvement of a Healthcare Monitoring System: Application to LoRaWAN 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"IEEE SENSORS JOURNAL, VOL. 22, NO. 7, APRIL 1, 2022"</t>
+    </r>
+  </si>
+  <si>
+    <t>Need for remote healthcare monitoring (temperature, SpO₂, BP, HR) with low power consumption and long battery life.
+Existing WBAN + LoRa solutions lack adaptive energy efficiency while maintaining medical monitoring requirements.</t>
+  </si>
+  <si>
+    <t>Wearable sensors:
+MAX30102 (Heart rate, SpO₂)
+BME280 (Body temperature)
+MPX4250AP (Blood pressure)
+Microcontroller: ATmega328P
+LoRa Module: SX1276 for LoRaWAN Class A transmission
+Power Source: 5V battery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Three-tier architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Wearable sensors on patient’s body connected to MCU (first tier).
+LoRa transmitter sends data to a LoRa gateway (second tier).
+Gateway transmits to medical server via IP for doctor’s review (third tier).
+Uses Early Warning Score (EWS) with Fuzzy Logic Controller to dynamically adapt:
+Sleep duration
+Data transmission rate
+Criticality (Risk Level) evaluation</t>
+    </r>
+  </si>
+  <si>
+    <t>Sensors measure patient parameters → EWS calculated via fuzzy inference system in MATLAB.
+Dynamic decision-making:
+First measurement always sent.
+Subsequent measurements sent only if score changes.If stable, sends data every 6 hours.
+Sleep mode activated to save energy between readings. Sleep duration inversely proportional to patient risk level (RL).
+Analytical model for energy consumption and permitted transmissions under LoRaWAN Class A duty cycle constraints.</t>
+  </si>
+  <si>
+    <t>Battery life can be extended 3-10x compared to reference systems:
+12+ months in normal monitoring.
+4x improvement even in critical monitoring.
+Higher SF increases energy consumption and reduces lifetime.
+Higher BW increases system lifetime.
+Collision probability reduces lifetime but within manageable limits.
+Duty cycle of 1% respected while ensuring effective patient monitoring.</t>
+  </si>
+  <si>
+    <t>Enhance decision-making using patient history in storage.
+Extend platform to additional medical parameters and AI-based health prediction.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">LoRa-Based Smart Sensor for Partial Discharges PD Detection in Underground Electrical Substations 
 </t>
     </r>
@@ -1175,6 +1366,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Ultrasonic sensor</t>
     </r>
     <r>
@@ -1254,6 +1453,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Analog Section: </t>
     </r>
     <r>
@@ -1292,6 +1499,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Sensor Node Design: </t>
     </r>
     <r>
@@ -1349,6 +1564,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Alerts: </t>
     </r>
     <r>
@@ -1406,6 +1629,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Design custom </t>
     </r>
     <r>
@@ -3491,6 +3720,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">LoRaAid: Underground Joint Communication and Localization System Based on LoRa Technology 
 </t>
     </r>
@@ -3515,6 +3750,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Wearable LoRa device</t>
     </r>
     <r>
@@ -3600,6 +3843,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Transmit Signal:</t>
     </r>
     <r>
@@ -4581,6 +4832,78 @@
 Multi-gateway coordination for large-scale deployments.
 Machine learning for faster parameter adaptation.
 Extension to mobile underground nodes (e.g., robotic sensors).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Near-Ground Propagation Channel Modeling and Analysis in Underground Mining Environment at 2.4 GHz 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE OPEN JOURNAL OF ANTENNAS AND PROPAGATION, VOL. 6, NO. 2, APRIL 2025"</t>
+    </r>
+  </si>
+  <si>
+    <t>Lack of detailed near-ground wireless channel modeling at 2.4 GHz in underground mines.
+Underground mines have complex multipath, attenuation, and harsh conditions impacting communication reliability.
+Needed for Mine IoT, safety, automation, and Mine 4.0.</t>
+  </si>
+  <si>
+    <t>Anritsu MS4647A Vector Network Analyzer (10 MHz – 70 GHz).
+200 MHz bandwidth at 2.4 GHz for frequency-domain channel sounding.
+9 dBi omnidirectional antennas.
+Broadband Radio-over-Fiber (RoF) link for extended measurement range.
+Tx-Rx antenna heights: 10 cm, 30 cm, 60 cm, 120 cm.
+Measurements in Old Lamaque underground gold mine (depth: 90–91 m, 150 m tunnel length).
+Tx moved from 1 m to 100 m, Rx fixed, covering LOS and NLOS.</t>
+  </si>
+  <si>
+    <t>Tx Node: Sends 2.4 GHz signal via VNA → RoF → 9 dBi antenna at low heights (10/30/60/120 cm).
+Channel: Underground tunnel acts as complex multipath network link (LOS &amp; NLOS).
+Rx Node: 9 dBi antenna + RoF + VNA captures signal.
+Measurements:
+S21(f): Channel Transfer Function (CTF).
+CIR: Channel Impulse Response via chirp-Z.
+40 positions tested (27 LOS, 13 NLOS, 1–100 m range).
+Analyzes:
+Path Loss (PL)
+RMS Delay Spread (τrms)
+Coherence Bandwidth (Bc)
+Power Delay Profile (PDP)</t>
+  </si>
+  <si>
+    <t>Set antennas at different low heights in the tunnel.
+Send signals and measure at 40 spots (LOS &amp; NLOS).
+Record path loss, delay spread, coherence bandwidth, PDP.
+Use a four-slope model to analyze how signals drop.
+Find the best antenna height for strong signals (60 cm).</t>
+  </si>
+  <si>
+    <t>Four-slope path loss model accurately fits underground near-ground propagation.
+60 cm antenna height performed best (lowest path loss in both LOS and NLOS).
+Shadow fading: Gaussian distribution.
+Variation increases with antenna height.
+RMS delay spread: Low and stable in LOS (2–8 ns), higher in NLOS (up to 14 ns).
+Best performance at lower antenna heights under NLOS.
+PDP follows power-law decay, with high R² fit in LOS.
+Optimal antenna height for underground mining found to be 60 cm</t>
+  </si>
+  <si>
+    <t>Extend study to mmWave frequencies for 5G/6G underground mining applications.
+Investigate massive MIMO with different antenna heights.
+Refine models with broader measurements to improve accuracy.</t>
   </si>
 </sst>
 </file>
@@ -4783,25 +5106,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4992,7 +5315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -5056,26 +5379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -5104,30 +5407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -5139,7 +5418,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -5174,47 +5455,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -5225,43 +5469,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -5397,7 +5604,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5409,34 +5616,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5521,225 +5728,129 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6273,16 +6384,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="28.1428571428571" customWidth="1"/>
@@ -6291,571 +6404,621 @@
     <col min="5" max="5" width="45.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="45.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="35.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="37.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="52.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" ht="28.5" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="254" customHeight="1" spans="1:8">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="169" customHeight="1" spans="1:8">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="234" customHeight="1" spans="1:8">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="248" customHeight="1" spans="1:8">
-      <c r="A6" s="25"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" customFormat="1" ht="358" customHeight="1" spans="1:8">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="297" customHeight="1" spans="1:8">
-      <c r="A7" s="25"/>
-      <c r="B7" s="31" t="s">
+    <row r="7" customFormat="1" ht="248" customHeight="1" spans="1:8">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="239" customHeight="1" spans="1:8">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+    <row r="8" customFormat="1" ht="297" customHeight="1" spans="1:8">
+      <c r="A8" s="18"/>
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="312" customHeight="1" spans="1:8">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
+    <row r="9" customFormat="1" ht="297" customHeight="1" spans="1:8">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" ht="234" customHeight="1" spans="1:8">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+    <row r="10" customFormat="1" ht="239" customHeight="1" spans="1:8">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" ht="292" customHeight="1" spans="1:8">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42" t="s">
+    <row r="11" s="1" customFormat="1" ht="312" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" ht="326" customHeight="1" spans="1:8">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42" t="s">
+    <row r="12" ht="234" customHeight="1" spans="1:8">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="326" customHeight="1" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
+    <row r="13" ht="292" customHeight="1" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="291" customHeight="1" spans="1:8">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54" t="s">
+    <row r="14" ht="326" customHeight="1" spans="1:8">
+      <c r="A14" s="25"/>
+      <c r="B14" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="264" customHeight="1" spans="1:8">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+    <row r="15" customFormat="1" ht="326" customHeight="1" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" ht="294" customHeight="1" spans="1:8">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42" t="s">
+    <row r="16" s="3" customFormat="1" ht="291" customHeight="1" spans="1:8">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" ht="270" customHeight="1" spans="1:8">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42" t="s">
+    <row r="17" s="1" customFormat="1" ht="264" customHeight="1" spans="1:8">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="41">
+    <row r="18" ht="294" customHeight="1" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" ht="270" customHeight="1" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" ht="409" customHeight="1" spans="1:8">
+      <c r="A20" s="37">
         <v>8</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="68"/>
+      <c r="B20" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="41">
-        <v>9</v>
-      </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="68"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="41">
-        <v>10</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="68"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="41">
-        <v>11</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="68"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="41">
-        <v>12</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="68"/>
+    <row r="24" spans="1:9">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="41">
-        <v>13</v>
-      </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="68"/>
+    <row r="25" spans="1:9">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="41">
-        <v>14</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="68"/>
+    <row r="26" spans="1:9">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="41">
-        <v>15</v>
-      </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="68"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="41">
-        <v>16</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="68"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="41">
-        <v>17</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="68"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="41">
-        <v>18</v>
-      </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="68"/>
+    <row r="30" spans="1:9">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="41">
-        <v>19</v>
-      </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="68"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
     </row>
-    <row r="30" ht="15.75" spans="1:8">
-      <c r="A30" s="69">
-        <v>20</v>
-      </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="72"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/research_compilation.xlsx
+++ b/research_compilation.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>PAPER ANALYSIS</t>
   </si>
@@ -479,43 +479,244 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Body-to-Body Channel Characterization and Modeling Inside an Underground Mine 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IEEE TRANSACTIONS ON ANTENNAS AND PROPAGATION, VOL. 68, NO. 6, JUNE 2020</t>
-    </r>
-  </si>
-  <si>
-    <t>In-mine body-to-body (B2B) wireless channels lack characterization and modeling, hindering robust WBAN-based miner safety systems due to complex multipath, polarization, and NLOS impacts.</t>
-  </si>
-  <si>
-    <t>2×2 MIMO system with circularly and linearly polarized patch antennas (2.4 GHz, 6.6 dBi gain), worn on the chest of two students, measured using VNA across 2.3–2.5 GHz in a 20m underground mine gallery with LOS and NLOS.</t>
-  </si>
-  <si>
-    <t>B2B MIMO WBAN system inside a mine, analyzing polarization (circular vs linear), alignment (co-positioned vs 90° rotated), LOS vs NLOS, and modeling path loss, RMS delay spread, channel capacity, and correlation for performance benchmarking.</t>
-  </si>
-  <si>
-    <t>Conducted measurements of S-parameters, computed impulse responses (IFFT with Hamming window), extracted PDP, PL using linear regression, RMS delay spread, coherence bandwidth, Rician K-factor, and MIMO channel capacities under fixed SNR and transmit power; developed an impulse response model using exponential decay for path amplitudes and Poisson distribution for time-of-arrival steps.</t>
-  </si>
-  <si>
-    <t>Circular polarization showed lower path loss, lower RMS delay spread, and better channel capacity vs linear; NLOS significantly increased PL (~30 dB) and delay spread; MIMO throughput gain was highest under NLOS; developed a close-fitting impulse response model; circularly polarized MIMO proved resilient to misalignment and suitable for B2B in mines.</t>
-  </si>
-  <si>
-    <t>Extend to dynamic scenarios with miner mobility, integrate with WBAN-enabled rescue systems, test higher MIMO configurations and other frequency bands (UWB, 5G bands) in underground mines for real-time miner health and positioning.</t>
+      <t>Body-to-Body Channel Characterization and Modeling Inside an Underground Mine 
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IEEE TRANSACTIONS ON ANTENNAS AND PROPAGATION, VOL. 68, NO. 6, JUNE 2020"</t>
+    </r>
+  </si>
+  <si>
+    <t>In-mine body-to-body (B2B) wireless channels lack proper characterization.
+This hinders reliable WBAN-based miner safety systems.
+Challenges: complex multipath, polarization effects, NLOS conditions in underground mines</t>
+  </si>
+  <si>
+    <r>
+      <t>2×2 MIMO system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with:
+Circularly and linearly polarized patch antennas (6.6 dBi gain).
+Operating at 2.4 GHz (measured across 2.3–2.5 GHz).
+Antennas worn on the chest of two students.
+Measurements taken using VNA.
+Conducted in a 20m underground mine gallery, with LOS and NLOS conditions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Two people wear chest antennas inside a mine.
+Use 2×2 MIMO (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2 TX, 2 RX antennas)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+Test circular vs linear polarization.
+Measure at 2.4 GHz using Vector Network Analyzer (VNA).
+Test in LOS and NLOS inside a 20m mine tunnel.
+Analyze path loss, delay spread, channel capacity for WBAN performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Collected S-parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> using Vector Network Analyyzer (VNA).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Computed impulse responses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> using IFFT with Hamming window.
+Extracted: Power Delay Profile (PDP), Path Loss (PL) via linear regression, RMS Delay Spread.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Coherence Bandwidth.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Rician K-factor.
+MIMO Channel Capacities under fixed SNR and transmit power.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Developed impulse response model:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Path amplitudes modeled with exponential decay.
+Time-of-arrival steps modeled with Poisson distribution.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Circular polarization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Lower path loss.
+Lower RMS delay spread.
+Higher channel capacity than linear polarization.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NLOS conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Increased path loss (~30 dB higher).
+Increased delay spread.
+MIMO throughput gain was highest under NLOS due to multipath exploitation.
+Circularly polarized MIMO proved robust to misalignment, making it suitable for B2B WBAN in mines</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integrate with WBAN-enabled rescue and health monitoring systems.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Test higher MIMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> configurations and other frequency bands (e.g., UWB, 5G) in underground mines. 
+Enable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> real-time miner positioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and health tracking in harsh environments.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -916,73 +1117,402 @@
 Wireless transmission modes like Bluetooth/4G either lack long-range support or are power-hungry, making real-time HAR impractical in large-range, low-power scenarios.</t>
   </si>
   <si>
-    <t>Wristband with:
+    <r>
+      <t>Wristband</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with:
 MPU-6050 (3-axis gyroscope + 3-axis accelerometer) for data collection.
 STM32 microcontroller for control.
-LoRa module (SX1278) for long-range, low-power wireless transmission.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LoRa module (SX1278</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) for long-range, low-power wireless transmission.
 Tested transmission: 200 m range, 4.8 kbps rate, 3.7V Li-ion battery.</t>
-  </si>
-  <si>
-    <t>Four layers:
-Perception layer: Data collection via wearable sensors.
-Access layer: LoRa for data transmission.
-Platform layer: Preprocessing + Capsule network-based activity recognition.
-Application layer: User feedback and stability adjustments.
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Four layers:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Perception layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Data collection via wearable sensors.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Access layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: LoRa for data transmission.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Platform layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Preprocessing + Capsule network-based activity recognition.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Application layer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> User feedback and stability adjustments.
 LoRa enables low-power, long-distance transmission, making smart prison or large-area HAR feasible.</t>
-  </si>
-  <si>
-    <t>Collect activity data via wristband and transmit via LoRa then handle data uncertainty (missing/inconsistent data) using deletion, prediction, and Dempster-Shafer theory. 
-Segment time-series data using a sliding window (length=90, 50% overlap).
-Build capsule network: Converts scalar inputs to vectors, capturing spatial relationships. Utilizes dynamic routing between capsule layers. Employs squash functions for non-linear vector processing. 
-Train on WISDM dataset (36 individuals, 6 activities, 20Hz).
-Optimize parameters: route iterations (best=5), learning rate (0.006), capsule kernels (34), capsule groups (11).
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Collect activity data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> via wristband and transmit via LoRa then handle data uncertainty (missing/inconsistent data) using deletion, prediction, and Dempster-Shafer theory. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Segment time-series data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> using a sliding window (length=90, 50% overlap).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Build capsule network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: Converts scalar inputs to vectors, capturing spatial relationships. Utilizes dynamic routing between capsule layers. Employs squash functions for non-linear vector processing. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> on WISDM dataset (36 individuals, 6 activities, 20Hz).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Optimize parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: route iterations (best=5), learning rate (0.006), capsule kernels (34), capsule groups (11).
 Use Softmax classifier for final activity prediction.
 Incorporate user feedback for system parameter tuning.</t>
-  </si>
-  <si>
-    <t>Accuracy:
-Capsule framework: 95.2% testing accuracy.
-Outperforms CNN by 4.5% and LSTM by 2.9% on WISDM.
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Accuracy:
+Capsule framework: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>95.2% testing accuracy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Outperforms CNN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">by 4.5% and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LSTM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> by 2.9% on WISDM.
 Training accuracy reaches 99.9% after 30 epochs.
-Performs well in recognizing walking (99%), jogging (97.5%), standing (96.2%), but struggles with distinguishing upstairs vs downstairs due to similarity.
+Performs well in recognizing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> walking (99%), jogging (97.5%), standing (96.2%), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>but struggles with distinguishing upstairs vs downstairs due to similarity.
 LoRa successfully achieves long-range, low-power transmission suitable for real-time HAR.</t>
-  </si>
-  <si>
-    <t>Explore capsule + LSTM hybrid frameworks to further improve recognition.
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explore </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">capsule + LSTM  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">hybrid frameworks to further improve recognition.
 Investigate alternative weighting mechanisms for capsules.
-Address limitations in distinguishing similar activities (e.g., stairs movement)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">LoRaWAN Underground to Aboveground Data Transmission Performances for Different Soil Compositions
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"IEEE TRANSACTIONS ON INSTRUMENTATION AND MEASUREMENT, VOL. 70, 2021"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Address limitations in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> distinguishing similar activities (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stairs movement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>LoRaWAN Underground to Aboveground Data Transmission Performances for Different Soil Compositions
+"IEEE TRANSACTIONS ON INSTRUMENTATION AND MEASUREMENT, VOL. 70, 2021"</t>
   </si>
   <si>
     <t>Evaluate LoRaWAN feasibility for underground-to-aboveground (UG2AG) data transmission.
@@ -1097,14 +1627,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
       <t>Start Topology</t>
     </r>
     <r>
@@ -1115,30 +1637,176 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
-LoRaWAN-based Internet of Underground Things system - Underground node periodically sends packets using LoRaWAN.
+LoRaWAN-based Internet of Underground Things system - Underground node</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> periodically sends packets using LoRaWAN.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Aboveground gateway forwards packets via MQTT to a Node-RED server.
-Data stored in a MySQL database for analysis of RSSI, SNR, and packet loss (PL).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Data stored</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in a MySQL database for analysis of RSSI, SNR, and packet loss (PL).
 Uses frequency diversity across 6 channels to enhance reliability.</t>
     </r>
   </si>
   <si>
-    <t>Soil samples (gravel, sand, clay) analyzed for grain size, VWC, and bulk density.
-Transmitter buried at 5 depths (10–50 cm) in each soil type.
+    <r>
+      <t xml:space="preserve">Soil samples (gravel, sand, clay) analyzed for grain size, VWC, and bulk density.
+Transmitter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buried at 5 depths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (10–50 cm) in each soil type.
 LoRaWAN transmissions at SF 7–12 with 300 packets per SF and depth.
-Collected RSSI, SNR, PL for each configuration.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Collected RSSI, SNR, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PL for each configuration.
 Validated soil compaction impact via a 20-day test showing negligible RSSI change.
 Applied path loss models using MBSDM and ITU methods for comparison with experimental results.</t>
-  </si>
-  <si>
-    <t>Successful UG2AG data transmission up to 50 cm for all soil types with PL &lt; 2% (except clay at SF=12 for 40/50 cm). 
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Successful UG2AG data transmission up to 50 cm for all soil types with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> PL &lt; 2% (except clay at SF=12 for 40/50 cm). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Sandy soil provided best RSSI/SNR; gravel worst (difference ~10 dBm).
 LoRaWAN’s high receiver sensitivity (up to -137 dBm) enables reliable underground data collection.</t>
-  </si>
-  <si>
-    <t>Extend tests to deeper burial depths (&gt;50 cm, e.g., 1 m).
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Extend</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> tests to deeper burial depth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s (&gt;50 cm, e.g., 1 m).
 Analyze impact of soil chemical composition (salinity, metallic content) on UG2AG transmissions.
 Test other frequency bands (433 MHz, 915 MHz) for UG2AG links.
-Study impact of larger gateway distances (30, 50, 100 m) on link budget.</t>
+Study</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> impact of larger gateway distances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (30, 50, 100 m) on link budget.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1214,14 +1882,25 @@
     </r>
   </si>
   <si>
-    <t>Anchor mounted on the robot:
+    <r>
+      <t>Anchor mounted on the robot:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 Sends/receives ranging packets from tag.
-Uses optimized ToF and TDoF measurements with antenna switching.
+Uses optimized ToF (Time of Flight) and TDoF (Time Difference of Flight) measurements with antenna switching.
 Rotates antenna array to create a virtual circular array for AoA estimation while eliminating blind spots.
 Uses Doppler shift analysis for movement estimation.
 Firmware on the robot:
 Receives AoA, ToF, and velocity data from the anchor.
 Calculates target location and navigates robot toward the target in real-time.</t>
+    </r>
   </si>
   <si>
     <t>Enable AoA on LoRa using lightweight hardware modification (antenna array + RF switch).
@@ -3643,13 +4322,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Adopt LoRaWAN gateways for extended coverage.
+      <t xml:space="preserve">Adopt LoRaWAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">gateways for extended coverage.
 </t>
     </r>
     <r>
@@ -3684,16 +4366,16 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Apply ML for hazard prediction and proactive safety.
+Apply ML for hazard prediction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and proactive safety.
 </t>
     </r>
     <r>
@@ -3953,10 +4635,264 @@
 Demonstrated that higher soil moisture reduces communication range and localization accuracy.</t>
   </si>
   <si>
-    <t>Extend LoRaAid to 3D localization in varying depth environments.
+    <r>
+      <t xml:space="preserve">Extend LoRaAid to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3D localization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in varying depth environments.
 Optimize anchor placement algorithms for rapid deployment during emergencies.
-Integrate adaptive SF/BW selection to balance energy, range, and data rate dynamically. 
+Integrate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>adaptive SF/BW selection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to balance energy, range, and data rate dynamically. 
 Test in real mine rescue and earthquake simulation environments for further validation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IoT-Enabled Real-Time Health Monitoring via Smart Textile Integration With LoRa Technology Across Diverse Environments 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE TRANSACTIONS ON INDUSTRIAL INFORMATICS, VOL. 20, NO. 11, NOVEMBER 2024"</t>
+    </r>
+  </si>
+  <si>
+    <t>Conventional wearable health monitoring systems face challenges:
+Limited communication range.
+Rigid, uncomfortable antenna designs.
+Interference in congested frequency bands (e.g., 2.45 GHz).
+Need for flexible, low-power, long-range wearable health monitoring in IoT-enabled healthcare.
+Requirement to monitor heart rate, ECG, and temperature with comfortable integration in clothing.</t>
+  </si>
+  <si>
+    <t>Digitally embroidered triple-band textile monopole antenna (433, 610, 915 MHz) on cotton fabric.
+Adafruit Feather M0 microcontroller with RFM69 packet radio transceiver for LoRa communication.
+Sensors:
+PPG sensor for heart rate.
+MAX30205 sensor for temperature.
+AD8232 sensor for ECG.
+SMA connectors with conductive adhesives for seamless textile integration.
+Battery-powered system for on-body operation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitter (Tx):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Embroidered textile antenna.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+LoRa module operating at 433 and 915 MHz.
+Sensors to collect heart rate, ECG, and temperature data.
+Data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>transmitted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wirelessly via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LoRa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+Receiver (Rx):
+LoRa receiver with identical frequencies.
+Connected to a laptop for real-time data monitoring.
+Peer-to-peer LoRa communication system enabling long-range, low-power, continuous monitoring.</t>
+    </r>
+  </si>
+  <si>
+    <t>Design, simulation, and fabrication of a digitally embroidered LoRa textile antenna.
+Antenna optimized for size and flexibility using meandered structure and slots.
+SAR analysis to ensure safe human body exposure limits.
+Experiments conducted:
+Outdoor testing (football field, hiking trail) to measure communication range and RSSI.
+Indoor testing (hospital) to analyze data reliability near medical devices.
+Continuous monitoring of physiological parameters (heart rate, ECG, temperature) with the system in real-life environments.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Achieved outdoor communication ranges:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Up to 350 m at 433 MHz.
+Up to 250 m at 915 MHz.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Indoor range up to 50 m with stable data transmission.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SAR((Specific Absorption Rate) values remained within safe limits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, ensuring suitability for wearable applications.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integration with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">battery-free energy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">harvesting for extended operation.
+Implementation of advanced data analytics and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for predictive health monitoring.
+Potential for large-scale deployment in smart hospitals, elderly care, and sports monitoring.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4740,9 +5676,20 @@
 Existing solutions (Adaptive Data Rate, Adaptive Selection of Transmission Configuration for LoRa-Based WUSNs) either sacrifice Energy Efficiency for reliability, lack adaptability, or ignore collisions.</t>
   </si>
   <si>
-    <t>Buried LoRa sensor nodes with soil moisture sensors Aboveground gateway receiving Underground-to-AboveGround transmissions
+    <r>
+      <t xml:space="preserve">Buried LoRa sensor nodes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>with soil moisture sensors Aboveground gateway receiving Underground-to-AboveGround transmissions
 Operating parameters: Central frequency = 915 Mhz
 Soil properties: Sand fraction S = 51%, Clay fraction = 9%</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4835,12 +5782,123 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
+      <t xml:space="preserve">Low-Cost LoRa-Based System for Continuous GHGs Monitoring in Cattle: Enhancing Agricultural Sustainability 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"IEEE 10.1109/ACCESS.2025.3532471 29 JAN 2025"</t>
+    </r>
+  </si>
+  <si>
+    <t>Livestock (especially cattle) emit significant methane (CH₄) and carbon dioxide (CO₂), contributing to climate change.
+Existing monitoring systems:
+Are fixed, costly, and not scalable.
+Lack livestock-level real-time data.
+Do not integrate manure management and seasonal variability.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cattle Collar System:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Sensors: MG-811 (CO₂), TGS2611 (CH₄).
+Seeeduino board + LoRa RFM95 module (925 MHz).
+LiPo battery (3.7V, 5000 mAh).
+Small fan for airflow to sensors.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Closed Feeding Slot System:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Same sensors as above, mounted near the feeding slot.
+ESP32-C3 microcontroller + LoRa RFM95 (920 MHz).
+Powered by 3.7V 9900 mAh battery.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LoRa Gateway:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ESP32-C3 with 2.4 GHz WiFi.
+10 dBi antenna.
+Data uploaded every 15s.</t>
+    </r>
+  </si>
+  <si>
+    <t>Two data collection points:
+Cattle Collar (movable, on-animal monitoring)
+Closed Feeding Slot (fixed near feeding area)
+LoRa network transmits sensor data up to 400m.
+WiFi gateway uploads real-time data to the cloud.
+Data analytics enabled via Google Sheets.</t>
+  </si>
+  <si>
+    <t>Sensors capture CH₄ and CO₂ concentrations near the emission source.
+Analog data processed into PPM values using calibration equations.
+Data transmission tested at distances up to 450 m to determine optimal range.
+Power consumption optimization:
+Data collection reduced from 1s to 5s, transmission from 15s to 60s to extend battery life.
+Open-air and closed-environment tests conducted for comparative analysis.</t>
+  </si>
+  <si>
+    <t>CH₄ measurement accuracy: Avg error ~7.46% (collar) and 8.69% (feeding slot) vs. standard detectors. 
+Transmission range: Reliable data up to 300 m (collar), 400 m (feeding slot); drop-offs beyond this 
+Emission trends: CH₄ remains high during feeding, decreases post-feeding.
+Power optimization: Runtime increased from ~6.5h to ~11.5h with reduced sampling/transmission rates.</t>
+  </si>
+  <si>
+    <t>Integrate genetic and dietary data with emissions monitoring.
+Apply AI/ML for predictive emission analysis and mitigation recommendations.
+Scale the system across larger herd sizes and diverse environments.
+Optimize for seasonal variability and manure management.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Near-Ground Propagation Channel Modeling and Analysis in Underground Mining Environment at 2.4 GHz 
 </t>
     </r>
@@ -4897,7 +5955,6 @@
 Variation increases with antenna height.
 RMS delay spread: Low and stable in LOS (2–8 ns), higher in NLOS (up to 14 ns).
 Best performance at lower antenna heights under NLOS.
-PDP follows power-law decay, with high R² fit in LOS.
 Optimal antenna height for underground mining found to be 60 cm</t>
   </si>
   <si>
@@ -5097,7 +6154,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5113,18 +6170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5315,7 +6360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -5358,11 +6403,41 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5372,10 +6447,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5383,6 +6458,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -5395,9 +6483,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -5431,24 +6517,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -5472,6 +6575,32 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -5604,7 +6733,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5616,128 +6745,128 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -5751,99 +6880,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6387,12 +7549,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6407,7 +7569,7 @@
     <col min="8" max="8" width="52.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6419,599 +7581,683 @@
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" ht="28.5" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="254" customHeight="1" spans="1:8">
-      <c r="A3" s="9">
+    <row r="3" s="2" customFormat="1" ht="250" customHeight="1" spans="1:8">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="169" customHeight="1" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" s="3" customFormat="1" ht="249" customHeight="1" spans="1:8">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="234" customHeight="1" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
+    <row r="5" customFormat="1" ht="226" customHeight="1" spans="1:8">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="358" customHeight="1" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+    <row r="6" customFormat="1" ht="349" customHeight="1" spans="1:8">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="248" customHeight="1" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+    <row r="7" customFormat="1" ht="243" customHeight="1" spans="1:8">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="297" customHeight="1" spans="1:8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="22" t="s">
+    <row r="8" customFormat="1" ht="287" customHeight="1" spans="1:8">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="297" customHeight="1" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" customFormat="1" ht="280" customHeight="1" spans="1:8">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="239" customHeight="1" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="312" customHeight="1" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24" t="s">
+    <row r="11" s="2" customFormat="1" ht="295" customHeight="1" spans="1:8">
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" ht="234" customHeight="1" spans="1:8">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" ht="241" customHeight="1" spans="1:8">
+      <c r="A12" s="20">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" ht="292" customHeight="1" spans="1:8">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22" t="s">
+    <row r="13" ht="287" customHeight="1" spans="1:8">
+      <c r="A13" s="20">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" ht="326" customHeight="1" spans="1:8">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+    <row r="14" ht="298" customHeight="1" spans="1:8">
+      <c r="A14" s="20">
+        <v>12</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="326" customHeight="1" spans="1:8">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+    <row r="15" customFormat="1" ht="234" customHeight="1" spans="1:8">
+      <c r="A15" s="20">
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="291" customHeight="1" spans="1:8">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
+    <row r="16" s="2" customFormat="1" ht="291" customHeight="1" spans="1:8">
+      <c r="A16" s="20">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="264" customHeight="1" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" s="2" customFormat="1" ht="276" customHeight="1" spans="1:8">
+      <c r="A17" s="20">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" ht="294" customHeight="1" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22" t="s">
+    <row r="18" s="2" customFormat="1" ht="220" customHeight="1" spans="1:8">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" ht="270" customHeight="1" spans="1:8">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+    <row r="19" ht="281" customHeight="1" spans="1:8">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" ht="409" customHeight="1" spans="1:8">
-      <c r="A20" s="37">
-        <v>8</v>
-      </c>
-      <c r="B20" s="38" t="s">
+    <row r="20" ht="260" customHeight="1" spans="1:8">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
+    <row r="21" ht="223" customHeight="1" spans="1:8">
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
+    <row r="22" ht="310" customHeight="1" spans="1:8">
+      <c r="A22" s="47">
+        <v>20</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/research_compilation.xlsx
+++ b/research_compilation.xlsx
@@ -479,6 +479,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Body-to-Body Channel Characterization and Modeling Inside an Underground Mine 
 "</t>
     </r>
@@ -500,6 +506,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>2×2 MIMO system</t>
     </r>
     <r>
@@ -549,6 +563,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Collected S-parameters</t>
     </r>
     <r>
@@ -631,6 +653,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Circular polarization:</t>
     </r>
     <r>
@@ -673,6 +703,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Integrate with WBAN-enabled rescue and health monitoring systems.
 </t>
     </r>
@@ -1118,6 +1154,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Wristband</t>
     </r>
     <r>
@@ -1156,6 +1200,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Four layers:</t>
     </r>
     <r>
@@ -1255,6 +1307,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Collect activity data</t>
     </r>
     <r>
@@ -1355,6 +1415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Accuracy:
 Capsule framework: </t>
     </r>
@@ -1445,6 +1511,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Explore </t>
     </r>
     <r>
@@ -1627,6 +1699,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Start Topology</t>
     </r>
     <r>
@@ -1685,6 +1765,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Soil samples (gravel, sand, clay) analyzed for grain size, VWC, and bulk density.
 Transmitter </t>
     </r>
@@ -1735,6 +1821,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Successful UG2AG data transmission up to 50 cm for all soil types with</t>
     </r>
     <r>
@@ -1762,6 +1854,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Extend</t>
     </r>
     <r>
@@ -1883,6 +1981,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Anchor mounted on the robot:</t>
     </r>
     <r>
@@ -3752,14 +3858,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Layered Star Topology 
 BLE Wearables Layer: </t>
     </r>
@@ -4322,6 +4420,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Adopt LoRaWAN </t>
     </r>
     <r>
@@ -4636,6 +4742,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Extend LoRaAid to </t>
     </r>
     <r>
@@ -4684,6 +4796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">IoT-Enabled Real-Time Health Monitoring via Smart Textile Integration With LoRa Technology Across Diverse Environments 
 </t>
     </r>
@@ -4718,6 +4836,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Transmitter (Tx):
 </t>
     </r>
@@ -4800,6 +4924,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Achieved outdoor communication ranges:
 </t>
     </r>
@@ -4849,6 +4979,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Integration with </t>
     </r>
     <r>
@@ -5677,6 +5813,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Buried LoRa sensor nodes </t>
     </r>
     <r>
@@ -5782,6 +5926,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Low-Cost LoRa-Based System for Continuous GHGs Monitoring in Cattle: Enhancing Agricultural Sustainability 
 </t>
     </r>
@@ -5805,6 +5955,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Cattle Collar System:</t>
     </r>
     <r>
@@ -5899,6 +6057,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Near-Ground Propagation Channel Modeling and Analysis in Underground Mining Environment at 2.4 GHz 
 </t>
     </r>
@@ -6857,7 +7021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6867,9 +7031,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6909,7 +7070,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6954,15 +7115,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -6981,23 +7133,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -7551,10 +7688,10 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7569,702 +7706,702 @@
     <col min="8" max="8" width="52.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.75" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="250" customHeight="1" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="249" customHeight="1" spans="1:8">
-      <c r="A4" s="14">
+    <row r="4" s="2" customFormat="1" ht="249" customHeight="1" spans="1:8">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="226" customHeight="1" spans="1:8">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="349" customHeight="1" spans="1:8">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="243" customHeight="1" spans="1:8">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="287" customHeight="1" spans="1:8">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="280" customHeight="1" spans="1:8">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="239" customHeight="1" spans="1:8">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="295" customHeight="1" spans="1:8">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" ht="241" customHeight="1" spans="1:8">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" ht="287" customHeight="1" spans="1:8">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" ht="298" customHeight="1" spans="1:8">
-      <c r="A14" s="20">
+    <row r="14" ht="302" customHeight="1" spans="1:8">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="234" customHeight="1" spans="1:8">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="291" customHeight="1" spans="1:8">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="276" customHeight="1" spans="1:8">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="220" customHeight="1" spans="1:8">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" ht="281" customHeight="1" spans="1:8">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" ht="260" customHeight="1" spans="1:8">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" ht="223" customHeight="1" spans="1:8">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" ht="310" customHeight="1" spans="1:8">
-      <c r="A22" s="47">
+      <c r="A22" s="38">
         <v>20</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="39" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/research_compilation.xlsx
+++ b/research_compilation.xlsx
@@ -533,6 +533,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t>Two people wear chest antennas inside a mine.
 Use 2×2 MIMO (</t>
     </r>
@@ -3858,6 +3864,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Layered Star Topology 
 BLE Wearables Layer: </t>
     </r>
@@ -6318,12 +6332,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6897,7 +6923,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6921,16 +6947,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6939,89 +6965,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7031,22 +7057,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7115,6 +7147,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -7133,8 +7180,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -7688,10 +7756,10 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7707,694 +7775,694 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="250" customHeight="1" spans="1:8">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="249" customHeight="1" spans="1:8">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="226" customHeight="1" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="349" customHeight="1" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="243" customHeight="1" spans="1:8">
-      <c r="A7" s="19">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="287" customHeight="1" spans="1:8">
-      <c r="A8" s="19">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="280" customHeight="1" spans="1:8">
-      <c r="A9" s="19">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="239" customHeight="1" spans="1:8">
-      <c r="A10" s="19">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="295" customHeight="1" spans="1:8">
-      <c r="A11" s="19">
+    <row r="11" s="3" customFormat="1" ht="295" customHeight="1" spans="1:8">
+      <c r="A11" s="33">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" ht="241" customHeight="1" spans="1:8">
-      <c r="A12" s="19">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" ht="287" customHeight="1" spans="1:8">
-      <c r="A13" s="19">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" ht="302" customHeight="1" spans="1:8">
-      <c r="A14" s="19">
+      <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="234" customHeight="1" spans="1:8">
-      <c r="A15" s="19">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="24" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="291" customHeight="1" spans="1:8">
-      <c r="A16" s="19">
+      <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="276" customHeight="1" spans="1:8">
-      <c r="A17" s="19">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="220" customHeight="1" spans="1:8">
-      <c r="A18" s="19">
+    <row r="18" s="4" customFormat="1" ht="220" customHeight="1" spans="1:8">
+      <c r="A18" s="44">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="51" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" ht="281" customHeight="1" spans="1:8">
-      <c r="A19" s="19">
+      <c r="A19" s="21">
         <v>17</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" ht="260" customHeight="1" spans="1:8">
-      <c r="A20" s="19">
+    <row r="20" s="3" customFormat="1" ht="260" customHeight="1" spans="1:8">
+      <c r="A20" s="33">
         <v>18</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="37" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" ht="223" customHeight="1" spans="1:8">
-      <c r="A21" s="19">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="27" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" ht="310" customHeight="1" spans="1:8">
-      <c r="A22" s="38">
+      <c r="A22" s="52">
         <v>20</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="53" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
